--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65556.77528879853</v>
+        <v>12831241.89786451</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65556.77528879853</v>
+        <v>12831241.89786451</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42159.31130296058</v>
+        <v>5190446.034663218</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42159.31130296058</v>
+        <v>5190446.034663218</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495771007.279522</v>
+        <v>58434233.39784241</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13061.57700974681</v>
+        <v>1431310.814749471</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24588.77341642089</v>
+        <v>2623517.40241</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36115.96982309495</v>
+        <v>3815723.990070531</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48522.05742837782</v>
+        <v>4880305.645788928</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60437.1476624092</v>
+        <v>6083724.294696994</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72221.16986559484</v>
+        <v>7276556.442374394</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83900.59878891945</v>
+        <v>8504465.163668735</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95549.22675085205</v>
+        <v>9726236.692146434</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107996.9297769965</v>
+        <v>10650220.34195428</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120321.3904698643</v>
+        <v>11767801.76288236</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132488.1256747395</v>
+        <v>12861292.06874989</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144654.8608796147</v>
+        <v>13954782.37461743</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156821.59608449</v>
+        <v>15048272.68048497</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>170006.4717053864</v>
+        <v>15932721.70500343</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185283.8545628564</v>
+        <v>16523783.69907665</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>295</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>385</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>30</v>
